--- a/xlsx/novokuzneck.xlsx
+++ b/xlsx/novokuzneck.xlsx
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>443940</v>
+        <v>646200</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>443940</t>
+          <t>646200</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">

--- a/xlsx/novokuzneck.xlsx
+++ b/xlsx/novokuzneck.xlsx
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>567540</v>
+        <v>291800</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>567540</t>
+          <t>291800</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>467100</v>
+        <v>286300</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>467100</t>
+          <t>286300</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>646200</v>
+        <v>293300</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>646200</t>
+          <t>293300</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>419940</v>
+        <v>280400</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>419940</t>
+          <t>280400</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>620940</v>
+        <v>267900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>620940</t>
+          <t>267900</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>431580</v>
+        <v>300300</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>431580</t>
+          <t>300300</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>761940</v>
+        <v>460500</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>761940</t>
+          <t>460500</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>728340</v>
+        <v>424000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>728340</t>
+          <t>424000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4710,7 +4710,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>797340</v>
+        <v>449000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>797340</t>
+          <t>449000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>673140</v>
+        <v>396900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>673140</t>
+          <t>396900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>790140</v>
+        <v>481900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>790140</t>
+          <t>481900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>958740</v>
+        <v>565900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>958740</t>
+          <t>565900</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>664140</v>
+        <v>404300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>664140</t>
+          <t>404300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>749940</v>
+        <v>395300</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>749940</t>
+          <t>395300</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
